--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H2">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I2">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J2">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>3.975685208571946</v>
+        <v>1.113204942996667</v>
       </c>
       <c r="R2">
-        <v>3.975685208571946</v>
+        <v>10.01884448697</v>
       </c>
       <c r="S2">
-        <v>0.009214519312772328</v>
+        <v>0.002034322051727715</v>
       </c>
       <c r="T2">
-        <v>0.009214519312772328</v>
+        <v>0.002351245168157585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H3">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I3">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J3">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>130.7663402955007</v>
+        <v>34.00047548498555</v>
       </c>
       <c r="R3">
-        <v>130.7663402955007</v>
+        <v>306.0042793648699</v>
       </c>
       <c r="S3">
-        <v>0.3030795711681266</v>
+        <v>0.06213403693855212</v>
       </c>
       <c r="T3">
-        <v>0.3030795711681266</v>
+        <v>0.071813778947056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H4">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I4">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J4">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>60.33698355387774</v>
+        <v>0.02233461371</v>
       </c>
       <c r="R4">
-        <v>60.33698355387774</v>
+        <v>0.20101152339</v>
       </c>
       <c r="S4">
-        <v>0.1398441453646522</v>
+        <v>4.081530312357695E-05</v>
       </c>
       <c r="T4">
-        <v>0.1398441453646522</v>
+        <v>4.717384062896754E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.98764177681977</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H5">
-        <v>2.98764177681977</v>
+        <v>2.210035</v>
       </c>
       <c r="I5">
-        <v>0.4412523309732878</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J5">
-        <v>0.4412523309732878</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>3.879964635633358</v>
+        <v>14.51964964389417</v>
       </c>
       <c r="R5">
-        <v>3.879964635633358</v>
+        <v>87.11789786336502</v>
       </c>
       <c r="S5">
-        <v>0.008992665966317599</v>
+        <v>0.02653387737788981</v>
       </c>
       <c r="T5">
-        <v>0.008992665966317599</v>
+        <v>0.02044502603845001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H6">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I6">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J6">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>127.6179448976005</v>
+        <v>0.2266771740933333</v>
       </c>
       <c r="R6">
-        <v>127.6179448976005</v>
+        <v>2.04009456684</v>
       </c>
       <c r="S6">
-        <v>0.2957824767865986</v>
+        <v>0.0004142403218584802</v>
       </c>
       <c r="T6">
-        <v>0.2957824767865986</v>
+        <v>0.0004787740242006467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H7">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J7">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>58.88428035124217</v>
+        <v>6.923371791737776</v>
       </c>
       <c r="R7">
-        <v>58.88428035124217</v>
+        <v>62.31034612563999</v>
       </c>
       <c r="S7">
-        <v>0.1364771882203717</v>
+        <v>0.01265208890496631</v>
       </c>
       <c r="T7">
-        <v>0.1364771882203717</v>
+        <v>0.01462313348058023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.721833685665888</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H8">
-        <v>0.721833685665888</v>
+        <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.1066094331811611</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J8">
-        <v>0.1066094331811611</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>0.9374246922513439</v>
+        <v>0.004547902119999999</v>
       </c>
       <c r="R8">
-        <v>0.9374246922513439</v>
+        <v>0.04093111907999999</v>
       </c>
       <c r="S8">
-        <v>0.002172686588061729</v>
+        <v>8.311046074687548E-06</v>
       </c>
       <c r="T8">
-        <v>0.002172686588061729</v>
+        <v>9.605807944149286E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.721833685665888</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H9">
-        <v>0.721833685665888</v>
+        <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.1066094331811611</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J9">
-        <v>0.1066094331811611</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>30.8333255470133</v>
+        <v>2.956574322463333</v>
       </c>
       <c r="R9">
-        <v>30.8333255470133</v>
+        <v>17.73944593478</v>
       </c>
       <c r="S9">
-        <v>0.07146297023652015</v>
+        <v>0.005402980268456369</v>
       </c>
       <c r="T9">
-        <v>0.07146297023652015</v>
+        <v>0.004163133442603068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.208284</v>
+      </c>
+      <c r="H10">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J10">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.511114</v>
+      </c>
+      <c r="N10">
+        <v>4.533342</v>
+      </c>
+      <c r="O10">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P10">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q10">
+        <v>4.848082868376001</v>
+      </c>
+      <c r="R10">
+        <v>43.63274581538401</v>
+      </c>
+      <c r="S10">
+        <v>0.008859610218035283</v>
+      </c>
+      <c r="T10">
+        <v>0.01023983183941968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.208284</v>
+      </c>
+      <c r="H11">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J11">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N11">
+        <v>138.461282</v>
+      </c>
+      <c r="O11">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P11">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q11">
+        <v>148.074371886696</v>
+      </c>
+      <c r="R11">
+        <v>1332.669346980264</v>
+      </c>
+      <c r="S11">
+        <v>0.2705979360942688</v>
+      </c>
+      <c r="T11">
+        <v>0.3127538676655029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.208284</v>
+      </c>
+      <c r="H12">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J12">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030318</v>
+      </c>
+      <c r="N12">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P12">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q12">
+        <v>0.09726875431200001</v>
+      </c>
+      <c r="R12">
+        <v>0.8754187888079999</v>
+      </c>
+      <c r="S12">
+        <v>0.0001777534074797756</v>
+      </c>
+      <c r="T12">
+        <v>0.0002054452686610843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="H10">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="I10">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="J10">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N10">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O10">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P10">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q10">
-        <v>14.22682513127968</v>
-      </c>
-      <c r="R10">
-        <v>14.22682513127968</v>
-      </c>
-      <c r="S10">
-        <v>0.0329737763565792</v>
-      </c>
-      <c r="T10">
-        <v>0.0329737763565792</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.208284</v>
+      </c>
+      <c r="H13">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J13">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.7096195</v>
+      </c>
+      <c r="N13">
+        <v>39.419239</v>
+      </c>
+      <c r="O13">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P13">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q13">
+        <v>63.23405688793802</v>
+      </c>
+      <c r="R13">
+        <v>379.4043413276281</v>
+      </c>
+      <c r="S13">
+        <v>0.1155568317915045</v>
+      </c>
+      <c r="T13">
+        <v>0.0890394721152505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H14">
+        <v>9.048665</v>
+      </c>
+      <c r="I14">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J14">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.511114</v>
+      </c>
+      <c r="N14">
+        <v>4.533342</v>
+      </c>
+      <c r="O14">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P14">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q14">
+        <v>4.557854787603334</v>
+      </c>
+      <c r="R14">
+        <v>41.02069308843</v>
+      </c>
+      <c r="S14">
+        <v>0.00832923403846399</v>
+      </c>
+      <c r="T14">
+        <v>0.009626829375791176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H15">
+        <v>9.048665</v>
+      </c>
+      <c r="I15">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J15">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N15">
+        <v>138.461282</v>
+      </c>
+      <c r="O15">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P15">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q15">
+        <v>139.2099729209478</v>
+      </c>
+      <c r="R15">
+        <v>1252.88975628853</v>
+      </c>
+      <c r="S15">
+        <v>0.2543987246150327</v>
+      </c>
+      <c r="T15">
+        <v>0.2940310122129117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H16">
+        <v>9.048665</v>
+      </c>
+      <c r="I16">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J16">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>0.09144580848999999</v>
+      </c>
+      <c r="R16">
+        <v>0.82301227641</v>
+      </c>
+      <c r="S16">
+        <v>0.0001671122877414618</v>
+      </c>
+      <c r="T16">
+        <v>0.0001931463893625741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.048665</v>
+      </c>
+      <c r="I17">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J17">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>59.44858137765584</v>
+      </c>
+      <c r="R17">
+        <v>356.691488265935</v>
+      </c>
+      <c r="S17">
+        <v>0.108639079265081</v>
+      </c>
+      <c r="T17">
+        <v>0.08370916819788429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0070985</v>
+      </c>
+      <c r="H18">
+        <v>2.014197</v>
+      </c>
+      <c r="I18">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J18">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>1.521840642729</v>
+      </c>
+      <c r="R18">
+        <v>9.131043856374001</v>
+      </c>
+      <c r="S18">
+        <v>0.002781081774920177</v>
+      </c>
+      <c r="T18">
+        <v>0.002142894100757456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0070985</v>
+      </c>
+      <c r="H19">
+        <v>2.014197</v>
+      </c>
+      <c r="I19">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J19">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>46.481383136759</v>
+      </c>
+      <c r="R19">
+        <v>278.888298820554</v>
+      </c>
+      <c r="S19">
+        <v>0.08494222317713579</v>
+      </c>
+      <c r="T19">
+        <v>0.06545013907645054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0070985</v>
+      </c>
+      <c r="H20">
+        <v>2.014197</v>
+      </c>
+      <c r="I20">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J20">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.030533212323</v>
+      </c>
+      <c r="R20">
+        <v>0.183199273938</v>
+      </c>
+      <c r="S20">
+        <v>5.579780033275446E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.299362149167074E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0070985</v>
+      </c>
+      <c r="H21">
+        <v>2.014197</v>
+      </c>
+      <c r="I21">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J21">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>19.84952823402076</v>
+      </c>
+      <c r="R21">
+        <v>79.39811293608302</v>
+      </c>
+      <c r="S21">
+        <v>0.03627394331735484</v>
+      </c>
+      <c r="T21">
+        <v>0.01863332938689564</v>
       </c>
     </row>
   </sheetData>
